--- a/biology/Zoologie/Dogs_!_La_Folle_Aventure/Dogs_!_La_Folle_Aventure.xlsx
+++ b/biology/Zoologie/Dogs_!_La_Folle_Aventure/Dogs_!_La_Folle_Aventure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">International Travel Medicine Clinic BNH Hospital, « La rage dedans », Gavroche Thaïlande, no 107,‎ avril 2003, p. 27 (lire en ligne [PDF])
-Dogs ! La Folle Aventure (มะหมา 4 ขาครับ, Ma mha 4 khaa khrap) est une comédie familiale thaïlandaise réalisée par Pantham Thongsang et Somkait Vituranich[1], sortie en 2007[2].
+Dogs ! La Folle Aventure (มะหมา 4 ขาครับ, Ma mha 4 khaa khrap) est une comédie familiale thaïlandaise réalisée par Pantham Thongsang et Somkait Vituranich, sortie en 2007.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">MaKham et ses compagnons Tommy, Sexy, Pikul, Nam Kang... sont des chiens abandonnés par leurs maîtres. Ils vivent heureux dans un bidonville désert mais ils en sont chassés par les terribles agents de la fourrière. Ils se retrouvent à la rue et partent alors à la recherche du Paradis des chiens.
 Makham, Sexy et leurs amis, solidaires, rusés et courageux, surmontent de nombreux dangers...
@@ -544,12 +558,14 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Dog ! La Folle Aventure
 Titre original : มะหมา 4 ขาครับ (Ma mha 4 khaa khrap)
 Autres titres :  Gang de chiens / Mid Road Gang
-Réalisation : Pantham Thongsang et Somkait Vituranich[3]
+Réalisation : Pantham Thongsang et Somkait Vituranich
 Scénario : Somkait Vituranich
 Pays d'origine :  Thaïlande
 Genre : Comédie et aventure
@@ -582,14 +598,50 @@
           <t>Distribution[4]</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Chaleumpol Tikumpornteerawong : Phii Yaam Jai Dee, l'agent de sécurité
 Pitisak Yaowananon
 Panissara Phimpru
-Pavarisa Phenjati
-Acteurs de doublage en langue siamoise (voix originale des chiens)[5]
-Nitipaisalkul (Golf) Pichaya (Pitchaya Nitipaisankul / กอลฟท์ (กอลฟ์-ไมค์)) : MaKham (มะขาม)
+Pavarisa Phenjati</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dogs_!_La_Folle_Aventure</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dogs_!_La_Folle_Aventure</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distribution[4]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Acteurs de doublage en langue siamoise (voix originale des chiens)[5]</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Nitipaisalkul (Golf) Pichaya (Pitchaya Nitipaisankul / กอลฟท์ (กอลฟ์-ไมค์)) : MaKham (มะขาม)
 Pirachaya Pinmuengngam (มิว เดอะสตาร) : Nam Kang (น้ำค้าง)
 Sakaojai Poonsawat (อ๋อม สกาวใจ) : Sexy (เซ็กซี่)
 Christopher Wright (อาจารย์คริส): Tommy (ทอมมี่)
